--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -5,15 +5,16 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gravityZero\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D40FC95-A5D3-45F4-AC45-7F3E6CCBF4F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85BA916-F565-4ABB-BF52-48129823AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
+    <workbookView xWindow="1380" yWindow="552" windowWidth="22332" windowHeight="9960" activeTab="1" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -43,22 +44,6 @@
   </si>
   <si>
     <t>data</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache-simple</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache-redis</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache-ehcache</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cache-mongodb</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -78,23 +63,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mq-api</t>
+    <t>sms-parent</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>mq-rabbit</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mq-kafka</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>mq-rocket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>sms-parent</t>
+    <t>装修</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,7 +100,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -179,29 +152,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -215,9 +173,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -401,12 +356,12 @@
     <xdr:from>
       <xdr:col>15</xdr:col>
       <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>15240</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>236220</xdr:colOff>
       <xdr:row>22</xdr:row>
       <xdr:rowOff>129540</xdr:rowOff>
     </xdr:to>
@@ -423,8 +378,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="9738360" y="3505200"/>
-          <a:ext cx="640080" cy="525780"/>
+          <a:off x="9738360" y="3581400"/>
+          <a:ext cx="251460" cy="457200"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -511,10 +466,10 @@
       <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -529,8 +484,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="7429500" y="2286000"/>
-          <a:ext cx="2308860" cy="1188720"/>
+          <a:off x="7429500" y="2301240"/>
+          <a:ext cx="2476500" cy="899160"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -564,10 +519,10 @@
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>129540</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -582,8 +537,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipH="1" flipV="1">
-          <a:off x="9174480" y="2308860"/>
-          <a:ext cx="571500" cy="1203960"/>
+          <a:off x="9174480" y="2324100"/>
+          <a:ext cx="708660" cy="876300"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -1015,197 +970,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54556E71-6FF2-40BB-B8D3-4764BC9A7C1E}">
-  <dimension ref="L6:AH28"/>
+  <dimension ref="L6:V28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="AA17" sqref="AA17"/>
+    <sheetView topLeftCell="H10" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="6" spans="12:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="12:34" x14ac:dyDescent="0.25">
-      <c r="O7" s="3" t="s">
-        <v>9</v>
+    <row r="6" spans="12:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="O7" s="1" t="s">
+        <v>5</v>
       </c>
-      <c r="P7" s="4"/>
+      <c r="P7" s="2"/>
     </row>
-    <row r="8" spans="12:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O8" s="5"/>
-      <c r="P8" s="6"/>
+    <row r="8" spans="12:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O8" s="3"/>
+      <c r="P8" s="4"/>
     </row>
-    <row r="11" spans="12:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="12" spans="12:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L12" s="3" t="s">
-        <v>8</v>
+    <row r="11" spans="12:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="12" spans="12:22" x14ac:dyDescent="0.25">
+      <c r="L12" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="M12" s="4"/>
-      <c r="O12" s="3" t="s">
+      <c r="M12" s="2"/>
+      <c r="O12" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="P12" s="2"/>
+      <c r="R12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="U12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="P12" s="4"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="7"/>
-      <c r="T12" s="7"/>
-      <c r="U12" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="V12" s="7"/>
-      <c r="W12" s="7"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="2"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="7"/>
-      <c r="AC12" s="7"/>
-      <c r="AD12" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="AE12" s="7"/>
-      <c r="AF12" s="7"/>
-      <c r="AG12" s="7"/>
-      <c r="AH12" s="2"/>
+      <c r="V12" s="2"/>
     </row>
-    <row r="13" spans="12:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="5"/>
-      <c r="M13" s="6"/>
-      <c r="O13" s="5"/>
-      <c r="P13" s="6"/>
-      <c r="R13" s="3" t="s">
-        <v>11</v>
-      </c>
+    <row r="13" spans="12:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="L13" s="3"/>
+      <c r="M13" s="4"/>
+      <c r="O13" s="3"/>
+      <c r="P13" s="4"/>
+      <c r="R13" s="3"/>
       <c r="S13" s="4"/>
-      <c r="T13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="U13" s="4"/>
-      <c r="V13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="W13" s="4"/>
-      <c r="X13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="Y13" s="4"/>
-      <c r="AA13" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="AB13" s="4"/>
-      <c r="AC13" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="AD13" s="4"/>
-      <c r="AE13" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="AF13" s="4"/>
-      <c r="AG13" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="AH13" s="4"/>
+      <c r="U13" s="3"/>
+      <c r="V13" s="4"/>
     </row>
-    <row r="14" spans="12:34" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="R14" s="5"/>
-      <c r="S14" s="6"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="6"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="6"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="6"/>
-      <c r="AA14" s="5"/>
-      <c r="AB14" s="6"/>
-      <c r="AC14" s="5"/>
-      <c r="AD14" s="6"/>
-      <c r="AE14" s="5"/>
-      <c r="AF14" s="6"/>
-      <c r="AG14" s="5"/>
-      <c r="AH14" s="6"/>
-    </row>
-    <row r="17" spans="15:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="15:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q18" s="1"/>
-      <c r="R18" s="7"/>
-      <c r="S18" s="7"/>
-      <c r="T18" s="7" t="s">
+    <row r="18" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="Q19" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U18" s="7"/>
-      <c r="V18" s="7"/>
-      <c r="W18" s="7"/>
-      <c r="X18" s="2"/>
+      <c r="R19" s="2"/>
     </row>
-    <row r="19" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="Q19" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="R19" s="4"/>
-      <c r="S19" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="T19" s="4"/>
-      <c r="U19" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="V19" s="4"/>
-      <c r="W19" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="X19" s="4"/>
+    <row r="20" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q20" s="3"/>
+      <c r="R20" s="4"/>
     </row>
-    <row r="20" spans="15:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q20" s="5"/>
-      <c r="R20" s="6"/>
-      <c r="S20" s="5"/>
-      <c r="T20" s="6"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="6"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="6"/>
-    </row>
-    <row r="22" spans="15:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O23" s="3" t="s">
+    <row r="22" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="4"/>
+      <c r="P23" s="2"/>
     </row>
-    <row r="24" spans="15:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="5"/>
-      <c r="P24" s="6"/>
+    <row r="24" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O24" s="3"/>
+      <c r="P24" s="4"/>
     </row>
-    <row r="26" spans="15:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="15:24" x14ac:dyDescent="0.25">
-      <c r="O27" s="3" t="s">
+    <row r="26" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="15:18" x14ac:dyDescent="0.25">
+      <c r="O27" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="P27" s="4"/>
+      <c r="P27" s="2"/>
     </row>
-    <row r="28" spans="15:24" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O28" s="5"/>
-      <c r="P28" s="6"/>
+    <row r="28" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="O28" s="3"/>
+      <c r="P28" s="4"/>
     </row>
   </sheetData>
-  <mergeCells count="17">
-    <mergeCell ref="V13:W14"/>
-    <mergeCell ref="X13:Y14"/>
-    <mergeCell ref="AA13:AB14"/>
-    <mergeCell ref="AC13:AD14"/>
-    <mergeCell ref="AE13:AF14"/>
-    <mergeCell ref="AG13:AH14"/>
+  <mergeCells count="8">
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="U12:V13"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="O23:P24"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="O12:P13"/>
     <mergeCell ref="O7:P8"/>
-    <mergeCell ref="R13:S14"/>
-    <mergeCell ref="T13:U14"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="O23:P24"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="S19:T20"/>
-    <mergeCell ref="U19:V20"/>
-    <mergeCell ref="W19:X20"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F334FF6-4EC2-4CA0-BAEF-5D83F1F7E1C7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C85BA916-F565-4ABB-BF52-48129823AE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71489FF6-46F3-405A-8ED4-F758F2BCB9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1380" yWindow="552" windowWidth="22332" windowHeight="9960" activeTab="1" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
+    <workbookView xWindow="708" yWindow="552" windowWidth="22332" windowHeight="9960" activeTab="1" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -67,7 +67,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>装修</t>
+    <t>微信支付流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -972,7 +972,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54556E71-6FF2-40BB-B8D3-4764BC9A7C1E}">
   <dimension ref="L6:V28"/>
   <sheetViews>
-    <sheetView topLeftCell="H10" workbookViewId="0">
+    <sheetView topLeftCell="H7" workbookViewId="0">
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
@@ -1053,14 +1053,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="O12:P13"/>
+    <mergeCell ref="O7:P8"/>
     <mergeCell ref="R12:S13"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="Q19:R20"/>
     <mergeCell ref="O27:P28"/>
     <mergeCell ref="O23:P24"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="O12:P13"/>
-    <mergeCell ref="O7:P8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1070,16 +1070,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F334FF6-4EC2-4CA0-BAEF-5D83F1F7E1C7}">
-  <dimension ref="A1"/>
+  <dimension ref="C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="12.5546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="6" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>8</v>
       </c>
     </row>

--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -1,20 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71489FF6-46F3-405A-8ED4-F758F2BCB9D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A435A-072B-4F74-AE98-B31880E59B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="708" yWindow="552" windowWidth="22332" windowHeight="9960" activeTab="1" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
+    <workbookView xWindow="216" yWindow="2796" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,12 +73,26 @@
     <t>微信支付流程</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>功能架构图：</t>
+  </si>
+  <si>
+    <t>技术架构图：</t>
+  </si>
+  <si>
+    <t>fall-platform-starter-api-dependency：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starters:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -88,6 +105,13 @@
       <sz val="9"/>
       <name val="等线"/>
       <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -158,9 +182,15 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -668,6 +698,199 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>64545</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1" descr="img">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{605FBA92-657F-40B3-BF4F-CFBBC1714ED9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1836420" y="0"/>
+          <a:ext cx="10104120" cy="6023385"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>43748</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="图片 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D84ED834-7B09-463C-8D51-87D7D152B344}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3701348" y="175260"/>
+          <a:ext cx="7500051" cy="5196840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>151822</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>106679</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="图片 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A68328B6-D50D-4F5F-87C5-EDB66E81C2F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4091940" y="5234362"/>
+          <a:ext cx="5852160" cy="5913697"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -980,76 +1203,76 @@
   <sheetData>
     <row r="6" spans="12:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="P7" s="2"/>
+      <c r="P7" s="4"/>
     </row>
     <row r="8" spans="12:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O8" s="3"/>
-      <c r="P8" s="4"/>
+      <c r="O8" s="5"/>
+      <c r="P8" s="6"/>
     </row>
     <row r="11" spans="12:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="12" spans="12:22" x14ac:dyDescent="0.25">
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="M12" s="2"/>
-      <c r="O12" s="1" t="s">
+      <c r="M12" s="4"/>
+      <c r="O12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P12" s="2"/>
-      <c r="R12" s="1" t="s">
+      <c r="P12" s="4"/>
+      <c r="R12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="S12" s="2"/>
-      <c r="U12" s="1" t="s">
+      <c r="S12" s="4"/>
+      <c r="U12" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="V12" s="2"/>
+      <c r="V12" s="4"/>
     </row>
     <row r="13" spans="12:22" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="L13" s="3"/>
-      <c r="M13" s="4"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="4"/>
-      <c r="R13" s="3"/>
-      <c r="S13" s="4"/>
-      <c r="U13" s="3"/>
-      <c r="V13" s="4"/>
+      <c r="L13" s="5"/>
+      <c r="M13" s="6"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="6"/>
+      <c r="R13" s="5"/>
+      <c r="S13" s="6"/>
+      <c r="U13" s="5"/>
+      <c r="V13" s="6"/>
     </row>
     <row r="18" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="Q19" s="1" t="s">
+      <c r="Q19" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="R19" s="2"/>
+      <c r="R19" s="4"/>
     </row>
     <row r="20" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="Q20" s="3"/>
-      <c r="R20" s="4"/>
+      <c r="Q20" s="5"/>
+      <c r="R20" s="6"/>
     </row>
     <row r="22" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="P23" s="2"/>
+      <c r="P23" s="4"/>
     </row>
     <row r="24" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O24" s="3"/>
-      <c r="P24" s="4"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="6"/>
     </row>
     <row r="26" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="27" spans="15:18" x14ac:dyDescent="0.25">
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="P27" s="2"/>
+      <c r="P27" s="4"/>
     </row>
     <row r="28" spans="15:18" ht="14.4" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="O28" s="3"/>
-      <c r="P28" s="4"/>
+      <c r="O28" s="5"/>
+      <c r="P28" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -1072,7 +1295,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F334FF6-4EC2-4CA0-BAEF-5D83F1F7E1C7}">
   <dimension ref="C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
@@ -1090,4 +1313,83 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F51C6456-CA5B-4850-B4B0-314D1B9EE945}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8E86569-271D-4638-AE7D-A900ED336998}">
+  <dimension ref="E3:E6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U11" sqref="U11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E4" s="1"/>
+    </row>
+    <row r="5" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81DEFA-0F4C-477D-8331-AB28BE5AFE13}">
+  <dimension ref="A1:B2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD0A435A-072B-4F74-AE98-B31880E59B05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA320C48-42B8-4F83-8F25-EEDB03FFC7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="216" yWindow="2796" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -80,11 +80,22 @@
     <t>技术架构图：</t>
   </si>
   <si>
-    <t>fall-platform-starter-api-dependency：</t>
+    <t>fall-platform-starter-api-dependency</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>fall-platform-starters:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>API层公共依赖抽取，响应编码基类，请求响应基类等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-core</t>
+  </si>
+  <si>
+    <t>核心包，封装了上下文环境，多线程，加密算法等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1366,26 +1377,38 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81DEFA-0F4C-477D-8331-AB28BE5AFE13}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" customWidth="1"/>
+    <col min="2" max="2" width="35.21875" customWidth="1"/>
+    <col min="3" max="3" width="88.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>11</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA320C48-42B8-4F83-8F25-EEDB03FFC7D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D6FDC-36B2-4FD7-A640-E6DE13B015E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="2796" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
+    <workbookView xWindow="216" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1380,7 +1380,7 @@
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>

--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E29D6FDC-36B2-4FD7-A640-E6DE13B015E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1410179D-4F1D-458E-98DC-67B3B875C893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="216" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
+    <workbookView xWindow="1296" yWindow="2244" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
+    <sheet name="架构设计" sheetId="5" r:id="rId5"/>
+    <sheet name="Platform系统参数" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -96,6 +97,27 @@
   </si>
   <si>
     <t>核心包，封装了上下文环境，多线程，加密算法等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-data</t>
+  </si>
+  <si>
+    <t xml:space="preserve">mp </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-config</t>
+  </si>
+  <si>
+    <t>系统参数及配置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-cache-redis</t>
+  </si>
+  <si>
+    <t>redis 缓存封装</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1287,14 +1309,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="O23:P24"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="O12:P13"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="R12:S13"/>
     <mergeCell ref="U12:V13"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="O23:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1377,17 +1399,17 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81DEFA-0F4C-477D-8331-AB28BE5AFE13}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" customWidth="1"/>
     <col min="2" max="2" width="35.21875" customWidth="1"/>
-    <col min="3" max="3" width="88.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -1411,8 +1433,47 @@
         <v>15</v>
       </c>
     </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>18</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C4789D-BAA9-4EBB-9925-EE8BBD425996}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G23" sqref="G23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1410179D-4F1D-458E-98DC-67B3B875C893}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79892AAC-15F4-4D23-92B6-273870A5C2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1296" yWindow="2244" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="5" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,8 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="架构设计" sheetId="5" r:id="rId5"/>
-    <sheet name="Platform系统参数" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
+    <sheet name="Platform系统参数" sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,6 +119,31 @@
   </si>
   <si>
     <t>redis 缓存封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-i18n</t>
+  </si>
+  <si>
+    <t>多语言词条，翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-cache-simple</t>
+  </si>
+  <si>
+    <t>java 实现的简单缓存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-cache-ehcache</t>
+  </si>
+  <si>
+    <t>ehcache 缓存封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp 雪花ID配置：https://www.cnblogs.com/chenghening/p/12793280.html</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1309,14 +1335,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="O23:P24"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="O12:P13"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="R12:S13"/>
     <mergeCell ref="U12:V13"/>
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="O23:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1399,10 +1425,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81DEFA-0F4C-477D-8331-AB28BE5AFE13}">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1451,10 +1477,34 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>18</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C8" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -1464,6 +1514,30 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10826FCD-1D75-473A-9655-6D1D9608064D}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="108.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24C4789D-BAA9-4EBB-9925-EE8BBD425996}">
   <dimension ref="A1"/>
   <sheetViews>

--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79892AAC-15F4-4D23-92B6-273870A5C2CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBC0CD5-208E-4F3A-AF32-4376B4237D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="5" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
+    <workbookView xWindow="0" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -104,10 +104,6 @@
     <t>fall-platform-starter-data</t>
   </si>
   <si>
-    <t xml:space="preserve">mp </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fall-platform-starter-config</t>
   </si>
   <si>
@@ -125,10 +121,6 @@
     <t>fall-platform-starter-i18n</t>
   </si>
   <si>
-    <t>多语言词条，翻译</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>fall-platform-starter-cache-simple</t>
   </si>
   <si>
@@ -144,6 +136,21 @@
   </si>
   <si>
     <t>mp 雪花ID配置：https://www.cnblogs.com/chenghening/p/12793280.html</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>多语言词条，简体繁体翻译、中文其他语言翻译</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mp 基础封装</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-mail</t>
+  </si>
+  <si>
+    <t>邮件</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1425,10 +1432,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81DEFA-0F4C-477D-8331-AB28BE5AFE13}">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1464,52 +1471,61 @@
         <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
         <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" t="s">
         <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C9" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1517,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10826FCD-1D75-473A-9655-6D1D9608064D}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
@@ -1528,7 +1544,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BBC0CD5-208E-4F3A-AF32-4376B4237D73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D14EE7-97B4-4336-8AB0-1F91D2594036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -151,6 +151,13 @@
   </si>
   <si>
     <t>邮件</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-file</t>
+  </si>
+  <si>
+    <t>文件组、文件信息基础操作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1342,14 +1349,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="O23:P24"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="O12:P13"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="R12:S13"/>
     <mergeCell ref="U12:V13"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="O23:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1432,10 +1439,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81DEFA-0F4C-477D-8331-AB28BE5AFE13}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1520,6 +1527,14 @@
       </c>
       <c r="C11" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01D14EE7-97B4-4336-8AB0-1F91D2594036}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5167DB-24D9-4205-8E87-D871167BDE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
@@ -18,8 +18,9 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
     <sheet name="Sheet4" sheetId="4" r:id="rId4"/>
     <sheet name="架构设计" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet5" sheetId="7" r:id="rId6"/>
+    <sheet name="问题集合" sheetId="7" r:id="rId6"/>
     <sheet name="Platform系统参数" sheetId="6" r:id="rId7"/>
+    <sheet name="技术记录" sheetId="8" r:id="rId8"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -158,6 +159,17 @@
   </si>
   <si>
     <t>文件组、文件信息基础操作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技术记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-mq-rabbit</t>
+  </si>
+  <si>
+    <t>RabbitMQ 的基本配置，实现消息可靠性、幂等性等</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1349,14 +1361,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="O7:P8"/>
+    <mergeCell ref="R12:S13"/>
+    <mergeCell ref="U12:V13"/>
     <mergeCell ref="Q19:R20"/>
     <mergeCell ref="O27:P28"/>
     <mergeCell ref="O23:P24"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="O12:P13"/>
-    <mergeCell ref="O7:P8"/>
-    <mergeCell ref="R12:S13"/>
-    <mergeCell ref="U12:V13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1439,10 +1451,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81DEFA-0F4C-477D-8331-AB28BE5AFE13}">
-  <dimension ref="A1:C14"/>
+  <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1537,6 +1549,14 @@
         <v>32</v>
       </c>
     </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1549,7 +1569,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1573,7 +1593,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G23" sqref="G23"/>
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1581,4 +1601,25 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEDB84E0-167A-4634-A0AF-000EEF651AC6}">
+  <dimension ref="D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M20" sqref="M20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="4" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="D4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE5167DB-24D9-4205-8E87-D871167BDE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0877439-627E-483A-A9F3-66738872F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -170,6 +170,14 @@
   </si>
   <si>
     <t>RabbitMQ 的基本配置，实现消息可靠性、幂等性等</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-mq</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统定义的消息格式，保证消息可靠性</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1361,14 +1369,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="L12:M13"/>
+    <mergeCell ref="O12:P13"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="R12:S13"/>
     <mergeCell ref="U12:V13"/>
     <mergeCell ref="Q19:R20"/>
     <mergeCell ref="O27:P28"/>
     <mergeCell ref="O23:P24"/>
-    <mergeCell ref="L12:M13"/>
-    <mergeCell ref="O12:P13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1454,7 +1462,7 @@
   <dimension ref="A1:C16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1547,6 +1555,14 @@
       </c>
       <c r="C14" t="s">
         <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">

--- a/platform架构.xlsx
+++ b/platform架构.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\CODESPACE\PhoenixPlan\platform\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0877439-627E-483A-A9F3-66738872F39B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8FD533-0E27-433F-895B-FBD0F03BF6BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2400" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
+    <workbookView xWindow="168" yWindow="1428" windowWidth="22332" windowHeight="9960" activeTab="4" xr2:uid="{3C15FFE3-867B-49FB-8783-EE051CC0D576}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
   <si>
     <t>core</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -178,6 +178,14 @@
   </si>
   <si>
     <t>系统定义的消息格式，保证消息可靠性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fall-platform-starter-sms</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>短信模块使用到的表</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1369,14 +1377,14 @@
     </row>
   </sheetData>
   <mergeCells count="8">
+    <mergeCell ref="Q19:R20"/>
+    <mergeCell ref="O27:P28"/>
+    <mergeCell ref="O23:P24"/>
     <mergeCell ref="L12:M13"/>
     <mergeCell ref="O12:P13"/>
     <mergeCell ref="O7:P8"/>
     <mergeCell ref="R12:S13"/>
     <mergeCell ref="U12:V13"/>
-    <mergeCell ref="Q19:R20"/>
-    <mergeCell ref="O27:P28"/>
-    <mergeCell ref="O23:P24"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1459,10 +1467,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE81DEFA-0F4C-477D-8331-AB28BE5AFE13}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1571,6 +1579,14 @@
       </c>
       <c r="C16" t="s">
         <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
